--- a/classification/droptc/sentence/neo-bert/freeze/24677315/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/freeze/24677315/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7577689290046692</v>
+        <v>0.7253865003585815</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7336840033531189</v>
+        <v>0.9973440766334534</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4431573450565338</v>
+        <v>0.4639729559421539</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3646239340305328</v>
+        <v>0.7461631894111633</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8596276640892029</v>
+        <v>0.9959624409675598</v>
       </c>
     </row>
     <row r="7">
@@ -618,19 +618,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4165360629558563</v>
+        <v>0.9979390501976013</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8163242936134338</v>
+        <v>0.9897575378417969</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7289132475852966</v>
+        <v>0.9739487767219543</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3203565776348114</v>
+        <v>0.9897575378417969</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8346073627471924</v>
+        <v>0.9766995906829834</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8960953950881958</v>
+        <v>0.9892004728317261</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4768450260162354</v>
+        <v>0.9882702827453613</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2461772561073303</v>
+        <v>0.9767126441001892</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3604543209075928</v>
+        <v>0.501386284828186</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8483322858810425</v>
+        <v>0.6429835557937622</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6561090350151062</v>
+        <v>0.9594544172286987</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8858941793441772</v>
+        <v>0.6991455554962158</v>
       </c>
     </row>
     <row r="19">
@@ -954,7 +954,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4405376017093658</v>
+        <v>0.988796591758728</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.959172248840332</v>
+        <v>0.9054932594299316</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4661298096179962</v>
+        <v>0.9965606331825256</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9816993474960327</v>
+        <v>0.9898752570152283</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.453963577747345</v>
+        <v>0.9816513061523438</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8257485628128052</v>
+        <v>0.9907329082489014</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7841408848762512</v>
+        <v>0.6270094513893127</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9704338908195496</v>
+        <v>0.545770525932312</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8820536732673645</v>
+        <v>0.9961916208267212</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7208893895149231</v>
+        <v>0.9973440766334534</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7995454072952271</v>
+        <v>0.990533709526062</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8671722412109375</v>
+        <v>0.979667067527771</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8853204846382141</v>
+        <v>0.9770962595939636</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9336949586868286</v>
+        <v>0.8768585920333862</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6219406723976135</v>
+        <v>0.9594148397445679</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.64885014295578</v>
+        <v>0.9857499599456787</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8708869814872742</v>
+        <v>0.9975678324699402</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5247414708137512</v>
+        <v>0.9951855540275574</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3994002044200897</v>
+        <v>0.9714030027389526</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.814683198928833</v>
+        <v>0.9920729994773865</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9336949586868286</v>
+        <v>0.9750676155090332</v>
       </c>
     </row>
     <row r="40">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1551,10 +1551,10 @@
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9125603437423706</v>
+        <v>0.541645884513855</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9439849257469177</v>
+        <v>0.9864885210990906</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.938812792301178</v>
+        <v>0.96888667345047</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.913250207901001</v>
+        <v>0.9945282340049744</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9336949586868286</v>
+        <v>0.5214139223098755</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7723006010055542</v>
+        <v>0.9339538216590881</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9078331589698792</v>
+        <v>0.9401707649230957</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7550333738327026</v>
+        <v>0.8266394138336182</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7442911863327026</v>
+        <v>0.9970666766166687</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7160223722457886</v>
+        <v>0.998595654964447</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8690941333770752</v>
+        <v>0.9989424347877502</v>
       </c>
     </row>
     <row r="51">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8017783164978027</v>
+        <v>0.5236942172050476</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8506644368171692</v>
+        <v>0.8288782238960266</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9398990869522095</v>
+        <v>0.9989424347877502</v>
       </c>
     </row>
     <row r="54">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.453963577747345</v>
+        <v>0.8868938088417053</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9119953513145447</v>
+        <v>0.9992876648902893</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.498176097869873</v>
+        <v>0.9993934631347656</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9207205176353455</v>
+        <v>0.984180212020874</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7651763558387756</v>
+        <v>0.9708583950996399</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9145401120185852</v>
+        <v>0.9875763654708862</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.917140781879425</v>
+        <v>0.9603342413902283</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7841408848762512</v>
+        <v>0.9695716500282288</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4939121603965759</v>
+        <v>0.9942249655723572</v>
       </c>
     </row>
     <row r="63">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5035718083381653</v>
+        <v>0.8924506902694702</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9247192144393921</v>
+        <v>0.8799260854721069</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8868470191955566</v>
+        <v>0.9950952529907227</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4675425291061401</v>
+        <v>0.9950952529907227</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5999090671539307</v>
+        <v>0.8153709173202515</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.418348103761673</v>
+        <v>0.9950952529907227</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.4096874892711639</v>
+        <v>0.9302624464035034</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7414916157722473</v>
+        <v>0.9523993730545044</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5207657814025879</v>
+        <v>0.935502827167511</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8152239322662354</v>
+        <v>0.9973202347755432</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7966418862342834</v>
+        <v>0.9833555817604065</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4592490792274475</v>
+        <v>0.8704426288604736</v>
       </c>
     </row>
     <row r="75">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4578448235988617</v>
+        <v>0.8260399103164673</v>
       </c>
     </row>
     <row r="76">
@@ -2555,14 +2555,14 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7655795216560364</v>
+        <v>0.9833555817604065</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5733724236488342</v>
+        <v>0.9426093697547913</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.880616307258606</v>
+        <v>0.9833555817604065</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6352274417877197</v>
+        <v>0.9995991587638855</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7561376094818115</v>
+        <v>0.9738398790359497</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7244970798492432</v>
+        <v>0.8805495500564575</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.797039806842804</v>
+        <v>0.9738398790359497</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9336949586868286</v>
+        <v>0.4333935678005219</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8039932250976562</v>
+        <v>0.4333935678005219</v>
       </c>
     </row>
     <row r="85">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6371033787727356</v>
+        <v>0.9999804496765137</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8690356016159058</v>
+        <v>0.9966492056846619</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8241177201271057</v>
+        <v>0.8786608576774597</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6897218227386475</v>
+        <v>0.9819591641426086</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9125624299049377</v>
+        <v>0.9212976694107056</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8641597628593445</v>
+        <v>0.9970217347145081</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.4327581524848938</v>
+        <v>0.9966489672660828</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5077866911888123</v>
+        <v>0.9961751699447632</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6270648241043091</v>
+        <v>0.9958458542823792</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7841408848762512</v>
+        <v>0.9957926273345947</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8568550944328308</v>
+        <v>0.9965056180953979</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.96242356300354</v>
+        <v>0.7145571708679199</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6897218227386475</v>
+        <v>0.9227025508880615</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5452167391777039</v>
+        <v>0.9980664849281311</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6897218227386475</v>
+        <v>0.5888001322746277</v>
       </c>
     </row>
     <row r="100">
@@ -3227,14 +3227,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4323759078979492</v>
+        <v>0.9892395734786987</v>
       </c>
     </row>
     <row r="101">
@@ -3255,14 +3255,14 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4780977368354797</v>
+        <v>0.7243503928184509</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4165360629558563</v>
+        <v>0.7916247248649597</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8549952507019043</v>
+        <v>0.6230520606040955</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9207205176353455</v>
+        <v>0.859991729259491</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9336949586868286</v>
+        <v>0.994203507900238</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7884104251861572</v>
+        <v>0.9435132145881653</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5713878870010376</v>
+        <v>0.9222764372825623</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4686241745948792</v>
+        <v>0.970791220664978</v>
       </c>
     </row>
     <row r="109">
@@ -3479,14 +3479,14 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2985373139381409</v>
+        <v>0.8937944769859314</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9473177790641785</v>
+        <v>0.9973440766334534</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8642419576644897</v>
+        <v>0.9448344707489014</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6812674999237061</v>
+        <v>0.9109671115875244</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7030800580978394</v>
+        <v>0.9679033160209656</v>
       </c>
     </row>
     <row r="114">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6169417500495911</v>
+        <v>0.947335958480835</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4238940477371216</v>
+        <v>0.8768382668495178</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3646239340305328</v>
+        <v>0.9749252796173096</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9268300533294678</v>
+        <v>0.9974420070648193</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.418348103761673</v>
+        <v>0.9196813106536865</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7208893895149231</v>
+        <v>0.5294965505599976</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8379194736480713</v>
+        <v>0.9973440766334534</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9180019497871399</v>
+        <v>0.9833601713180542</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6982818841934204</v>
+        <v>0.997819185256958</v>
       </c>
     </row>
     <row r="123">
@@ -3871,14 +3871,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6305719017982483</v>
+        <v>0.9833601713180542</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7854153513908386</v>
+        <v>0.997819185256958</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5794575214385986</v>
+        <v>0.9833601713180542</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8111541867256165</v>
+        <v>0.99986732006073</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8758459091186523</v>
+        <v>0.5481932163238525</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8539398312568665</v>
+        <v>0.9973440766334534</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8294576406478882</v>
+        <v>0.4328705668449402</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8937175273895264</v>
+        <v>0.5339838862419128</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.4889468550682068</v>
+        <v>0.9997814297676086</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4260138869285583</v>
+        <v>0.5949324369430542</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.4165360629558563</v>
+        <v>0.974304735660553</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7593406438827515</v>
+        <v>0.8524722456932068</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.601894736289978</v>
+        <v>0.840221107006073</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.4260684549808502</v>
+        <v>0.9559768438339233</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.869052529335022</v>
+        <v>0.9870781898498535</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.6494417786598206</v>
+        <v>0.8942351341247559</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5404811501502991</v>
+        <v>0.9962455630302429</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5124850869178772</v>
+        <v>0.993582010269165</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9006033539772034</v>
+        <v>0.96310955286026</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5879191756248474</v>
+        <v>0.9973440766334534</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.7317152619361877</v>
+        <v>0.5460283160209656</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9519407153129578</v>
+        <v>0.9975752234458923</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8517027497291565</v>
+        <v>0.5460283160209656</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9020663499832153</v>
+        <v>0.99622642993927</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6913187503814697</v>
+        <v>0.9302624464035034</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.7046660184860229</v>
+        <v>0.9522762298583984</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.5373100638389587</v>
+        <v>0.9225663542747498</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.899135410785675</v>
+        <v>0.7209402322769165</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8427520394325256</v>
+        <v>0.9973440766334534</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8591908812522888</v>
+        <v>0.8860920071601868</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8181803822517395</v>
+        <v>0.9992461204528809</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.5651911497116089</v>
+        <v>0.9782013893127441</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.653782844543457</v>
+        <v>0.9901358485221863</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9439154863357544</v>
+        <v>0.9643353819847107</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7519726157188416</v>
+        <v>0.9890149235725403</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9336949586868286</v>
+        <v>0.9772477746009827</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.6668580174446106</v>
+        <v>0.9945474863052368</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8596794605255127</v>
+        <v>0.734476625919342</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9247192144393921</v>
+        <v>0.9974710941314697</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6820746064186096</v>
+        <v>0.9406384229660034</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.3514449894428253</v>
+        <v>0.7786711454391479</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.4740275144577026</v>
+        <v>0.9710081219673157</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.5806242227554321</v>
+        <v>0.9963913559913635</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9509042501449585</v>
+        <v>0.9184898138046265</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9509042501449585</v>
+        <v>0.9258736371994019</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4661298096179962</v>
+        <v>0.6072374582290649</v>
       </c>
     </row>
     <row r="169">
@@ -5159,14 +5159,14 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4136152863502502</v>
+        <v>0.9973440766334534</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8251546621322632</v>
+        <v>0.9258736371994019</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.4775223731994629</v>
+        <v>0.8824493885040283</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.3115567862987518</v>
+        <v>0.9973440766334534</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.4302812218666077</v>
+        <v>0.987256646156311</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9603898525238037</v>
+        <v>0.9915006160736084</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9053982496261597</v>
+        <v>0.987256646156311</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.7593406438827515</v>
+        <v>0.987256646156311</v>
       </c>
     </row>
     <row r="177">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.5380248427391052</v>
+        <v>0.9915006160736084</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9559931755065918</v>
+        <v>0.9877024292945862</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.4264203310012817</v>
+        <v>0.9778259992599487</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9336949586868286</v>
+        <v>0.9746313095092773</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6439951658248901</v>
+        <v>0.9199427962303162</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9336949586868286</v>
+        <v>0.9853097796440125</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.8207011222839355</v>
+        <v>0.9319906234741211</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9782111048698425</v>
+        <v>0.9979348182678223</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.6752538681030273</v>
+        <v>0.9980970025062561</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5748456120491028</v>
+        <v>0.9752820730209351</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9530088901519775</v>
+        <v>0.7559667825698853</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8997326493263245</v>
+        <v>0.9883026480674744</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.7687839269638062</v>
+        <v>0.9946445226669312</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.663966178894043</v>
+        <v>0.9984626770019531</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8021313548088074</v>
+        <v>0.5853347778320312</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.7506190538406372</v>
+        <v>0.99432373046875</v>
       </c>
     </row>
     <row r="193">
@@ -5831,14 +5831,14 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.44257652759552</v>
+        <v>0.9728543758392334</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9046257138252258</v>
+        <v>0.9572988748550415</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7422659397125244</v>
+        <v>0.9028449654579163</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9125603437423706</v>
+        <v>0.9996724128723145</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6736993193626404</v>
+        <v>0.9988553524017334</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.7956270575523376</v>
+        <v>0.9991414546966553</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.5005429983139038</v>
+        <v>0.9204545617103577</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7180848121643066</v>
+        <v>0.5804340243339539</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.7777177691459656</v>
+        <v>0.997258186340332</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.98539137840271</v>
+        <v>0.5187183618545532</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9267224073410034</v>
+        <v>0.9155591130256653</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5090013742446899</v>
+        <v>0.962535560131073</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8627928495407104</v>
+        <v>0.8502776622772217</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9336949586868286</v>
+        <v>0.9989588260650635</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4824694693088531</v>
+        <v>0.968288779258728</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.6114782094955444</v>
+        <v>0.9459310173988342</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8593378663063049</v>
+        <v>0.5610250234603882</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7208888530731201</v>
+        <v>0.9848714470863342</v>
       </c>
     </row>
   </sheetData>
